--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/129.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/129.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1926191059623623</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.6042881818727</v>
+        <v>-1.606074693575377</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04287695373363116</v>
+        <v>-0.04219540345410796</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1459940944082818</v>
+        <v>-0.1498000726435869</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1939666935791011</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585934331908774</v>
+        <v>-1.588808490824269</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07350893985326384</v>
+        <v>-0.07190186633041584</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1197630657518059</v>
+        <v>-0.1242537423048767</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2030232814453326</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634685639143259</v>
+        <v>-1.637271752559556</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1213795833893817</v>
+        <v>-0.1195946457058267</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1152818333134628</v>
+        <v>-0.1192829899198092</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2167441244010599</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728864712237604</v>
+        <v>-1.731071487045668</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1481221682602804</v>
+        <v>-0.1469747083208522</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1260670123326151</v>
+        <v>-0.1304475075471949</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.225890055560701</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760256949592825</v>
+        <v>-1.760175100598517</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1090817719946594</v>
+        <v>-0.1090282553445352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1162640212451544</v>
+        <v>-0.1202604557941369</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2212746513321818</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620921628937045</v>
+        <v>-1.619150857425582</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04461152280530452</v>
+        <v>-0.04450763754329867</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1172650974063017</v>
+        <v>-0.1207751600468022</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2010510566273829</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331902598912495</v>
+        <v>-1.33233230613261</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009504600323813978</v>
+        <v>-0.00706172264755531</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1120283357897343</v>
+        <v>-0.1167157647329677</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1681354253528488</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9105660124844844</v>
+        <v>-0.9135369735759394</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009691908599248759</v>
+        <v>-0.003252596374007646</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07188140408183893</v>
+        <v>-0.0766003134074984</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1239305849584354</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3834348788564906</v>
+        <v>-0.3905730555715892</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05666536123622518</v>
+        <v>-0.0479940898969797</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02467971867227391</v>
+        <v>-0.02902086340882121</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06732766837275686</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1816175234418794</v>
+        <v>0.1709252115508839</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1164954020559856</v>
+        <v>-0.1035774271274709</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05787128816346197</v>
+        <v>0.05306580778613097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.002634585265224733</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8613277746122767</v>
+        <v>0.8465115326234733</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2457711665075324</v>
+        <v>-0.2294517362578869</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1376787796707707</v>
+        <v>0.1324908126469637</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08488247096515175</v>
       </c>
       <c r="E13" t="n">
-        <v>1.555252992467141</v>
+        <v>1.536885763340683</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4510358520781125</v>
+        <v>-0.4313920934442799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2563031567284758</v>
+        <v>0.2511151897046687</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1759679752579515</v>
       </c>
       <c r="E14" t="n">
-        <v>2.279485948502649</v>
+        <v>2.25758347242975</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6822387987486066</v>
+        <v>-0.6609202837697101</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3771783811296408</v>
+        <v>0.3710019300976569</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2678464594608345</v>
       </c>
       <c r="E15" t="n">
-        <v>3.012234347984394</v>
+        <v>2.987171241515924</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9302798149692149</v>
+        <v>-0.906344493201156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4892611347192202</v>
+        <v>0.4828344146469495</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3516623291156715</v>
       </c>
       <c r="E16" t="n">
-        <v>3.632774072346856</v>
+        <v>3.607703095782779</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.215015938964706</v>
+        <v>-1.185433823598981</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6352844626214063</v>
+        <v>0.6259489552129719</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4278550424982351</v>
       </c>
       <c r="E17" t="n">
-        <v>4.22700721513502</v>
+        <v>4.199860107349947</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.46997319520431</v>
+        <v>-1.436135719144148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7849846991909508</v>
+        <v>0.7749566233691441</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5030100559772535</v>
       </c>
       <c r="E18" t="n">
-        <v>4.75542904444248</v>
+        <v>4.728911544305928</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.711315186044662</v>
+        <v>-1.675965864618491</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9219652872412645</v>
+        <v>0.9102923614376985</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5793631076391041</v>
       </c>
       <c r="E19" t="n">
-        <v>5.18550143699371</v>
+        <v>5.158332292940939</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.000976415870703</v>
+        <v>-1.961927362499915</v>
       </c>
       <c r="G19" t="n">
-        <v>1.067253548213803</v>
+        <v>1.054826667251134</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6529760958387407</v>
       </c>
       <c r="E20" t="n">
-        <v>5.523202517411408</v>
+        <v>5.495762642069773</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.254878292289475</v>
+        <v>-2.214432296948532</v>
       </c>
       <c r="G20" t="n">
-        <v>1.218134299124323</v>
+        <v>1.205513813809734</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7181778910110157</v>
       </c>
       <c r="E21" t="n">
-        <v>5.80787804167073</v>
+        <v>5.780435018290852</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.477446170060513</v>
+        <v>-2.435407267368814</v>
       </c>
       <c r="G21" t="n">
-        <v>1.355015723969995</v>
+        <v>1.343020124246562</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7726998040224564</v>
       </c>
       <c r="E22" t="n">
-        <v>6.013600766805608</v>
+        <v>5.987525566042141</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.682885571753558</v>
+        <v>-2.640883658511209</v>
       </c>
       <c r="G22" t="n">
-        <v>1.470630576467773</v>
+        <v>1.457854263260175</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8165600837185053</v>
       </c>
       <c r="E23" t="n">
-        <v>6.153697912716097</v>
+        <v>6.125543432693392</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.802952537335934</v>
+        <v>-2.76233418690121</v>
       </c>
       <c r="G23" t="n">
-        <v>1.569795355128838</v>
+        <v>1.557138667374459</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8480524946568735</v>
       </c>
       <c r="E24" t="n">
-        <v>6.258168709835067</v>
+        <v>6.229050930110125</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.875760365810819</v>
+        <v>-2.837402306834282</v>
       </c>
       <c r="G24" t="n">
-        <v>1.617412581586426</v>
+        <v>1.604940054069239</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8642392297007735</v>
       </c>
       <c r="E25" t="n">
-        <v>6.275788279878906</v>
+        <v>6.246873548620613</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.95391277621208</v>
+        <v>-2.915350881759335</v>
       </c>
       <c r="G25" t="n">
-        <v>1.667639531747131</v>
+        <v>1.656917313492831</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8631082709703862</v>
       </c>
       <c r="E26" t="n">
-        <v>6.264112206037098</v>
+        <v>6.236126146060371</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.01496425586997</v>
+        <v>-2.977286173153835</v>
       </c>
       <c r="G26" t="n">
-        <v>1.686183051015174</v>
+        <v>1.675498609219785</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8446870051434962</v>
       </c>
       <c r="E27" t="n">
-        <v>6.167725571125128</v>
+        <v>6.140476152097171</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.028823494233023</v>
+        <v>-2.992360554278532</v>
       </c>
       <c r="G27" t="n">
-        <v>1.692605049030081</v>
+        <v>1.68212365570134</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8111711954270768</v>
       </c>
       <c r="E28" t="n">
-        <v>6.00278410740403</v>
+        <v>5.977752481317985</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.038827172758449</v>
+        <v>-3.002621584930291</v>
       </c>
       <c r="G28" t="n">
-        <v>1.678142961343571</v>
+        <v>1.668462743747571</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7670909425681914</v>
       </c>
       <c r="E29" t="n">
-        <v>5.831711839205465</v>
+        <v>5.808262102336327</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.99540864230693</v>
+        <v>-2.960880958862079</v>
       </c>
       <c r="G29" t="n">
-        <v>1.641128327687063</v>
+        <v>1.63156458750604</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7185347939623116</v>
       </c>
       <c r="E30" t="n">
-        <v>5.638094895132509</v>
+        <v>5.616607960107634</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.966286927534186</v>
+        <v>-2.933490665122764</v>
       </c>
       <c r="G30" t="n">
-        <v>1.57110493903776</v>
+        <v>1.562551719132612</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6708078291203515</v>
       </c>
       <c r="E31" t="n">
-        <v>5.398115217841642</v>
+        <v>5.378258966626435</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.864712325598409</v>
+        <v>-2.834990122530889</v>
       </c>
       <c r="G31" t="n">
-        <v>1.496557819433838</v>
+        <v>1.488026635796388</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6260397714613273</v>
       </c>
       <c r="E32" t="n">
-        <v>5.166573857060069</v>
+        <v>5.146597980391642</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.803180770108523</v>
+        <v>-2.773145337235863</v>
       </c>
       <c r="G32" t="n">
-        <v>1.423112513214827</v>
+        <v>1.414926039764942</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.58307313297313</v>
       </c>
       <c r="E33" t="n">
-        <v>4.871785259946391</v>
+        <v>4.852645187431374</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.678583777495043</v>
+        <v>-2.650530821705661</v>
       </c>
       <c r="G33" t="n">
-        <v>1.349150928724028</v>
+        <v>1.341682207993457</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5394098690742917</v>
       </c>
       <c r="E34" t="n">
-        <v>4.61087742441871</v>
+        <v>4.594314021205263</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.601917241144289</v>
+        <v>-2.574418340085606</v>
       </c>
       <c r="G34" t="n">
-        <v>1.248355466253296</v>
+        <v>1.24120784542347</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4923751473808884</v>
       </c>
       <c r="E35" t="n">
-        <v>4.295991751164265</v>
+        <v>4.282401670070954</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.527976905911629</v>
+        <v>-2.502047301916882</v>
       </c>
       <c r="G35" t="n">
-        <v>1.156689314686108</v>
+        <v>1.149689651653684</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4403238726558646</v>
       </c>
       <c r="E36" t="n">
-        <v>3.956304258615485</v>
+        <v>3.943945060475032</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.431635917554178</v>
+        <v>-2.406607439506375</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076403321365924</v>
+        <v>1.071423124866129</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3839103416615161</v>
       </c>
       <c r="E37" t="n">
-        <v>3.67267703109095</v>
+        <v>3.66138659193386</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.362846559895974</v>
+        <v>-2.338388663779643</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9898826383062678</v>
+        <v>0.9844396801848101</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3251827375733348</v>
       </c>
       <c r="E38" t="n">
-        <v>3.371661614333406</v>
+        <v>3.364000863270036</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.294768658880598</v>
+        <v>-2.270845142255948</v>
       </c>
       <c r="G38" t="n">
-        <v>0.900223361118738</v>
+        <v>0.8957783311201849</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2659988678097616</v>
       </c>
       <c r="E39" t="n">
-        <v>3.053245416189884</v>
+        <v>3.047260995490699</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.21676578029586</v>
+        <v>-2.194387950448328</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8118059850179145</v>
+        <v>0.8081086141019792</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2087651262760936</v>
       </c>
       <c r="E40" t="n">
-        <v>2.773756284935248</v>
+        <v>2.766536259225842</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.143045020730621</v>
+        <v>-2.120187115051093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7448078611197507</v>
+        <v>0.7416251944564808</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1552061099793859</v>
       </c>
       <c r="E41" t="n">
-        <v>2.47668063803832</v>
+        <v>2.470379839495754</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.082581437214537</v>
+        <v>-2.061502960151639</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6863802713370692</v>
+        <v>0.6841420161465797</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1058297755662457</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200139644597881</v>
+        <v>2.195826832205518</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.996498331470603</v>
+        <v>-1.977033224007038</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6143751926140479</v>
+        <v>0.6131096812405222</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.06036750236616284</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947265602665319</v>
+        <v>1.943628044475993</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.933624137670247</v>
+        <v>-1.913614419590712</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5441975500908568</v>
+        <v>0.542173361500864</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.01835418670164711</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745430704760053</v>
+        <v>1.741111596291204</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.881842056617697</v>
+        <v>-1.862571340515612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776826500629323</v>
+        <v>0.47547744927399</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.02058402245917555</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532514712240831</v>
+        <v>1.530499967765566</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.796641975600812</v>
+        <v>-1.777695507437715</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4267757236418255</v>
+        <v>0.4248853266771433</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.05676140474447545</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336620162499354</v>
+        <v>1.3337711878898</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.737062990830899</v>
+        <v>-1.718816961176781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3747921681417489</v>
+        <v>0.374069693365072</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.09050739807299839</v>
       </c>
       <c r="E47" t="n">
-        <v>1.18197120981244</v>
+        <v>1.180090256962486</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.705636125055009</v>
+        <v>-1.687788322238581</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3271529054164623</v>
+        <v>0.325161771228017</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1225176125577349</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005106551247488</v>
+        <v>1.004264451017592</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.643068864983307</v>
+        <v>-1.624990468365608</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561252925677688</v>
+        <v>0.2548676512898496</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1535556310933541</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8587841597122549</v>
+        <v>0.8578145639335336</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.592826174631389</v>
+        <v>-1.57466278098114</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2215000199373963</v>
+        <v>0.2203478379406042</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1839116608231876</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7591943958884391</v>
+        <v>0.7581539692492593</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.542057761892957</v>
+        <v>-1.52294129966476</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1796153711195849</v>
+        <v>0.1782050499868995</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2135009906090327</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6437479634366401</v>
+        <v>0.6432379812413387</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.504797581253527</v>
+        <v>-1.485442655128453</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455819296788215</v>
+        <v>0.1440378169208255</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2419607167713881</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5365651313716697</v>
+        <v>0.5346479760819255</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.460843097291205</v>
+        <v>-1.442110695728605</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1061196962886919</v>
+        <v>0.1055278650990829</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2692117894904903</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4682999220808589</v>
+        <v>0.4648103216889353</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.420913380222049</v>
+        <v>-1.403252885681055</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07426312329268732</v>
+        <v>0.0730605726840136</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2955912688182787</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3771799551487621</v>
+        <v>0.3718770847291001</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.369364253999451</v>
+        <v>-1.350066779572305</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04335568382682702</v>
+        <v>0.04267413354730382</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3216146012518746</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2873491098770105</v>
+        <v>0.2803903713417402</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.337757950043734</v>
+        <v>-1.31851163123803</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008697356794907176</v>
+        <v>0.008974384160256097</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3481605368134547</v>
       </c>
       <c r="E56" t="n">
-        <v>0.223535226661238</v>
+        <v>0.2154904149322702</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.317674253065497</v>
+        <v>-1.298332706102955</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008388620766811791</v>
+        <v>-0.009049708797758078</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3755889261150654</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1477052814734561</v>
+        <v>0.1393818683600181</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.324637713658132</v>
+        <v>-1.305419727196611</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04432819936347039</v>
+        <v>-0.04490743840010904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4036248079648722</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08441397260595546</v>
+        <v>0.07568761059746446</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.304669707085311</v>
+        <v>-1.286387474991404</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07442029692449695</v>
+        <v>-0.07528285940296972</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4321518802590927</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04738202473911418</v>
+        <v>0.03752551700152927</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.315046428142486</v>
+        <v>-1.296328979761539</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09944562693405658</v>
+        <v>-0.09985644592471606</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4607847723766215</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.006059072467286772</v>
+        <v>-0.01797597123465428</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.318961013697161</v>
+        <v>-1.301372137026186</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1040874093227723</v>
+        <v>-0.1051372800766799</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4888650371351521</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04442264051074844</v>
+        <v>-0.05726821055968335</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.298955230665429</v>
+        <v>-1.281889715352287</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1352388217524342</v>
+        <v>-0.1360636077719958</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5162862232747202</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09837371991245081</v>
+        <v>-0.1115356678047672</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.323696450223594</v>
+        <v>-1.306175256374835</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428035576494053</v>
+        <v>-0.1440155523728069</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5433065740116032</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1415474903906074</v>
+        <v>-0.1555578345893048</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.36362616729275</v>
+        <v>-1.345394303810724</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617437297360165</v>
+        <v>-0.1624567603979657</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5696686243846538</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1959109628020905</v>
+        <v>-0.2123783508491383</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.405123607406721</v>
+        <v>-1.38609843828756</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774288302797778</v>
+        <v>-0.1788706317948893</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5950029375077911</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2487492106850333</v>
+        <v>-0.266896077134509</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.437957646277054</v>
+        <v>-1.418930903138771</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028523871270266</v>
+        <v>-0.2040801220416411</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6191445784998723</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3155253978870937</v>
+        <v>-0.333026916496836</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.479932014184779</v>
+        <v>-1.461944910676115</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2087533848127829</v>
+        <v>-0.2102801833604445</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6416998228881946</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3026593655895819</v>
+        <v>-0.3221299821200714</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.526247526829052</v>
+        <v>-1.508602772479271</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2418251005704316</v>
+        <v>-0.2435093010302233</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.662329438480933</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.330168497772554</v>
+        <v>-0.3474291914567373</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.557288757920223</v>
+        <v>-1.538115631003659</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2521427959105576</v>
+        <v>-0.2536947787641601</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.681294220893416</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3582962194701973</v>
+        <v>-0.3754703421027091</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.616792976781874</v>
+        <v>-1.596583358273933</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2583397091911184</v>
+        <v>-0.2590275555471268</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6985874515691648</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3847727951095962</v>
+        <v>-0.4016620202811526</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.634724202611731</v>
+        <v>-1.615101693236036</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.268707773143126</v>
+        <v>-0.2693735832314362</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7139551579296753</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3916984792433192</v>
+        <v>-0.4073709876341101</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.6732176272327</v>
+        <v>-1.652047857060767</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2873567516922966</v>
+        <v>-0.287704609918104</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.727302596712151</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3899812243819801</v>
+        <v>-0.4050319952198573</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.706003658519833</v>
+        <v>-1.684355386535024</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2849327622454935</v>
+        <v>-0.2850838680811384</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7384146941219158</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3509250879251462</v>
+        <v>-0.3647654380587431</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.730589050184989</v>
+        <v>-1.709983565868042</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2873473075775688</v>
+        <v>-0.2866090926096788</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7465113600532279</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3093347806830181</v>
+        <v>-0.3234143817230528</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.763092545039848</v>
+        <v>-1.742399702661669</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2921055673812608</v>
+        <v>-0.2915263283446221</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7506476676176707</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2462213359762244</v>
+        <v>-0.2586749752639554</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.782291643271913</v>
+        <v>-1.76170268615574</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2959855245152669</v>
+        <v>-0.2944524298911201</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7502977551660301</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1386623133412632</v>
+        <v>-0.1507948527282489</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.790369509402428</v>
+        <v>-1.769964712523447</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.279108891496681</v>
+        <v>-0.2769351710901647</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7446509166239658</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.052366715015953</v>
+        <v>-0.0633344802531762</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.776657441827217</v>
+        <v>-1.756275468225495</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.265671490258137</v>
+        <v>-0.263006675885775</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7328720611076349</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08273292018440633</v>
+        <v>0.07291891096309654</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.780513001664843</v>
+        <v>-1.760244357439855</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2381355997501028</v>
+        <v>-0.2343910082605284</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7151060716089817</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2103858709218921</v>
+        <v>0.200716671459742</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.809132604337893</v>
+        <v>-1.789202374223984</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2215108097909249</v>
+        <v>-0.2181345387757349</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6916419730446383</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3570671388167819</v>
+        <v>0.3469320296947268</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.765699907714283</v>
+        <v>-1.747878076213356</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1953364458228158</v>
+        <v>-0.1914785249565078</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6631161435284685</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4868859398651774</v>
+        <v>0.4778715323574884</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.743871410540085</v>
+        <v>-1.728070619590908</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1666719836048089</v>
+        <v>-0.1631918273276131</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.630518471119598</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6657747870201219</v>
+        <v>0.654824335993233</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.704251775237825</v>
+        <v>-1.69008639015568</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1406691877209216</v>
+        <v>-0.1375211494783202</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5945963272897755</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8387893948143722</v>
+        <v>0.8293169477423846</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.634632909502696</v>
+        <v>-1.622688465400705</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1221728890265172</v>
+        <v>-0.1174256473566743</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5554607975505752</v>
       </c>
       <c r="E84" t="n">
-        <v>1.020772763561794</v>
+        <v>1.009820738515784</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.554614499433133</v>
+        <v>-1.545292371187229</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1063146463794128</v>
+        <v>-0.1010904769158158</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5133458032105772</v>
       </c>
       <c r="E85" t="n">
-        <v>1.167989197957926</v>
+        <v>1.155516670440739</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.449723439208776</v>
+        <v>-1.440823148087381</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08648830152750932</v>
+        <v>-0.08001121284335698</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4686948190606102</v>
       </c>
       <c r="E86" t="n">
-        <v>1.329507170090196</v>
+        <v>1.318227749066955</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.332652619023795</v>
+        <v>-1.32556717194926</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05638990788999756</v>
+        <v>-0.04988448686166182</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4215219311623798</v>
       </c>
       <c r="E87" t="n">
-        <v>1.470391325561335</v>
+        <v>1.457468628575457</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.202282911282944</v>
+        <v>-1.196390570702355</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03253407408756434</v>
+        <v>-0.02560996397296262</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3717800373912374</v>
       </c>
       <c r="E88" t="n">
-        <v>1.560585769250107</v>
+        <v>1.550164188647975</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056234399074817</v>
+        <v>-1.052215141248576</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01840725247389067</v>
+        <v>-0.01182470450861119</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.320300163236603</v>
       </c>
       <c r="E89" t="n">
-        <v>1.665785337222239</v>
+        <v>1.654477583854815</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9102700968896799</v>
+        <v>-0.9090683332905668</v>
       </c>
       <c r="G89" t="n">
-        <v>0.005714590560042373</v>
+        <v>0.01273471584104344</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2691602564939299</v>
       </c>
       <c r="E90" t="n">
-        <v>1.709590289368037</v>
+        <v>1.698748445660518</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.718800114898179</v>
+        <v>-0.7207849530101392</v>
       </c>
       <c r="G90" t="n">
-        <v>0.006970657818840322</v>
+        <v>0.01490214017107449</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2214756962015506</v>
       </c>
       <c r="E91" t="n">
-        <v>1.72683839089925</v>
+        <v>1.718809319361495</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5337883333613749</v>
+        <v>-0.5362327850567549</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01106917533038686</v>
+        <v>-0.004212748038001066</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1820405584139053</v>
       </c>
       <c r="E92" t="n">
-        <v>1.699245835702849</v>
+        <v>1.692189507982058</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3696810997745651</v>
+        <v>-0.3734162471494117</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01433998706444969</v>
+        <v>-0.0070396863798571</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1546224373224211</v>
       </c>
       <c r="E93" t="n">
-        <v>1.655708466807672</v>
+        <v>1.650016813665048</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2171602209396498</v>
+        <v>-0.2213549818979161</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02945529268630019</v>
+        <v>-0.02343466954732507</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1412048186634797</v>
       </c>
       <c r="E94" t="n">
-        <v>1.557108761011154</v>
+        <v>1.552851039288036</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07861033582539938</v>
+        <v>-0.08382191313602595</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03575136917150295</v>
+        <v>-0.02939862799793337</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1406449005682971</v>
       </c>
       <c r="E95" t="n">
-        <v>1.487294716904983</v>
+        <v>1.482959868244921</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02805621796778434</v>
+        <v>0.02311222390777887</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07108652442558208</v>
+        <v>-0.06547042420078124</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1489008235197862</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403057935590335</v>
+        <v>1.3994345435731</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1101051127038253</v>
+        <v>0.1044748463069327</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1001523615195206</v>
+        <v>-0.09459922205957176</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1592641459818341</v>
       </c>
       <c r="E97" t="n">
-        <v>1.32290415987634</v>
+        <v>1.320231475408371</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1732594819077728</v>
+        <v>0.1679015208188653</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1199031534536016</v>
+        <v>-0.1137298504598603</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1668859557604666</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228359127336292</v>
+        <v>1.224748327472029</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2063091613977233</v>
+        <v>0.2003373328515085</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1404708613116377</v>
+        <v>-0.1348720752971712</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1715210661335117</v>
       </c>
       <c r="E99" t="n">
-        <v>1.142244541209932</v>
+        <v>1.138215052259402</v>
       </c>
       <c r="F99" t="n">
-        <v>0.227073621645922</v>
+        <v>0.2218793585456297</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1428271679362248</v>
+        <v>-0.1374629107708321</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1767552169587617</v>
       </c>
       <c r="E100" t="n">
-        <v>1.05399873319333</v>
+        <v>1.050378489214338</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2390660733311119</v>
+        <v>0.2338371818101511</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1573380502154959</v>
+        <v>-0.1519816631457096</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1848364398099322</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9634202288389606</v>
+        <v>0.9601069185886227</v>
       </c>
       <c r="F101" t="n">
-        <v>0.233549136310953</v>
+        <v>0.2265652134697419</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1711579381005159</v>
+        <v>-0.1653450854855525</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2025411005201387</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9022916222441272</v>
+        <v>0.8997369892102561</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2396657746163275</v>
+        <v>0.2330139698097108</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1967341748025308</v>
+        <v>-0.1903924517628103</v>
       </c>
     </row>
   </sheetData>
